--- a/results/many_equal/insertion_sort.xlsx
+++ b/results/many_equal/insertion_sort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{7FD26B2C-E7E4-45F6-B574-D7D076EC3FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{542F43A6-7B33-4302-BDB6-099357F57C64}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{7FD26B2C-E7E4-45F6-B574-D7D076EC3FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A44B01D9-3195-449B-89DF-105C7EF86FFE}"/>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="1845" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="insertion_sort" sheetId="1" r:id="rId1"/>
@@ -593,19 +593,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -631,19 +625,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -674,19 +662,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -785,19 +767,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -896,19 +872,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1018,10 +988,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1049,10 +1020,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1072,9 +1044,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1088,8 +1060,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1118,9 +1091,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1135,10 +1108,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1166,10 +1140,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1199,8 +1174,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1240,8 +1216,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1265,28 +1242,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1349,33 +1315,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1383,34 +1351,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1419,8 +1379,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1439,6 +1400,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1447,35 +1416,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1487,29 +1466,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1527,18 +1508,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1548,20 +1532,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1575,14 +1559,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1596,8 +1580,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1611,6 +1596,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1622,9 +1613,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1639,100 +1630,93 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1740,14 +1724,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1759,19 +1743,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1787,6 +1764,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1795,8 +1773,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1806,7 +1785,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1814,9 +1793,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1827,8 +1806,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1840,6 +1820,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1883,6 +1869,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/results/many_equal/insertion_sort.xlsx
+++ b/results/many_equal/insertion_sort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{7FD26B2C-E7E4-45F6-B574-D7D076EC3FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A44B01D9-3195-449B-89DF-105C7EF86FFE}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{7FD26B2C-E7E4-45F6-B574-D7D076EC3FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB4E870-01B7-4DDB-8C63-C468595EA1AB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="insertion_sort" sheetId="1" r:id="rId1"/>
@@ -1840,10 +1840,10 @@
       <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2179,6 +2179,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1">

--- a/results/many_equal/insertion_sort.xlsx
+++ b/results/many_equal/insertion_sort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://her169626-my.sharepoint.com/personal/f_kretke_otto-hahn-gymnasium_de/Documents/Schule/Facharbeit/facharbeit/results/many_equal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{7FD26B2C-E7E4-45F6-B574-D7D076EC3FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB4E870-01B7-4DDB-8C63-C468595EA1AB}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{A977EDCA-73C7-45C2-A6C4-DF59C3164C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB5D699-DE4B-4D06-BAE7-44F715C87F1B}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14895" yWindow="2205" windowWidth="31875" windowHeight="17145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="insertion_sort" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>BEST_CASE</t>
+    <t>AVERAGE_CASE</t>
   </si>
   <si>
-    <t>AVERAGE_CASE</t>
+    <t>BEST_CASE_ALL_SAME</t>
+  </si>
+  <si>
+    <t>BEST_CASE_SORTED</t>
   </si>
   <si>
     <t>WORST_CASE</t>
@@ -656,7 +659,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BEST_CASE</c:v>
+                  <c:v>AVERAGE_CASE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -716,31 +719,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>233</c:v>
+                  <c:v>75050</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400</c:v>
+                  <c:v>291030</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>766</c:v>
+                  <c:v>1165580</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1433</c:v>
+                  <c:v>4668220</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2866</c:v>
+                  <c:v>18541010</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5666</c:v>
+                  <c:v>74027310</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11300</c:v>
+                  <c:v>294371060</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22566</c:v>
+                  <c:v>1183581160</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45033</c:v>
+                  <c:v>4725895550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -748,7 +751,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C2B7-46C3-B958-F2F480C6885D}"/>
+              <c16:uniqueId val="{00000000-316F-43BF-9F72-3EE507815216}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -761,7 +764,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AVERAGE_CASE</c:v>
+                  <c:v>BEST_CASE_ALL_SAME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -821,31 +824,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>71740</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284590</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1178390</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4623850</c:v>
+                  <c:v>1460</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18689580</c:v>
+                  <c:v>2850</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74689470</c:v>
+                  <c:v>5690</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>301373550</c:v>
+                  <c:v>11270</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1205930460</c:v>
+                  <c:v>22540</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4842500730</c:v>
+                  <c:v>45060</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -853,7 +856,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C2B7-46C3-B958-F2F480C6885D}"/>
+              <c16:uniqueId val="{00000001-316F-43BF-9F72-3EE507815216}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -866,7 +869,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>WORST_CASE</c:v>
+                  <c:v>BEST_CASE_SORTED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -926,31 +929,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>145366</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>594833</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2368733</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9480633</c:v>
+                  <c:v>1430</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37967966</c:v>
+                  <c:v>2860</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>152120100</c:v>
+                  <c:v>5660</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>607842300</c:v>
+                  <c:v>11630</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2431126500</c:v>
+                  <c:v>22380</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9717219500</c:v>
+                  <c:v>44830</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,7 +961,112 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C2B7-46C3-B958-F2F480C6885D}"/>
+              <c16:uniqueId val="{00000002-316F-43BF-9F72-3EE507815216}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>insertion_sort!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WORST_CASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>insertion_sort!$B$1:$J$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>insertion_sort!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>147220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>592100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2378380</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9523910</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38127360</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152120810</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>608576870</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2435330880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9744132200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-316F-43BF-9F72-3EE507815216}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -971,11 +1079,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="576210463"/>
-        <c:axId val="576217119"/>
+        <c:axId val="1528728624"/>
+        <c:axId val="1528725712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="576210463"/>
+        <c:axId val="1528728624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,7 +1181,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576217119"/>
+        <c:crossAx val="1528725712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1081,7 +1189,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="576217119"/>
+        <c:axId val="1528725712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,8 +1230,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t>Zeit in ns</a:t>
+                  <a:t>Zeit</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> in ns</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1187,7 +1300,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576210463"/>
+        <c:crossAx val="1528728624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1835,22 +1948,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:colOff>223836</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C54E20-9332-8469-ACC6-B0D20EED3478}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{913ADBDF-0A42-9960-75FD-DC800461C24D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,10 +1982,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2172,15 +2281,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J4"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
@@ -2222,31 +2331,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>233</v>
+        <v>75050</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <v>291030</v>
       </c>
       <c r="D2">
-        <v>766</v>
+        <v>1165580</v>
       </c>
       <c r="E2">
-        <v>1433</v>
+        <v>4668220</v>
       </c>
       <c r="F2">
-        <v>2866</v>
+        <v>18541010</v>
       </c>
       <c r="G2">
-        <v>5666</v>
+        <v>74027310</v>
       </c>
       <c r="H2">
-        <v>11300</v>
+        <v>294371060</v>
       </c>
       <c r="I2">
-        <v>22566</v>
+        <v>1183581160</v>
       </c>
       <c r="J2">
-        <v>45033</v>
+        <v>4725895550</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2254,31 +2363,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>71740</v>
+        <v>230</v>
       </c>
       <c r="C3">
-        <v>284590</v>
+        <v>400</v>
       </c>
       <c r="D3">
-        <v>1178390</v>
+        <v>730</v>
       </c>
       <c r="E3">
-        <v>4623850</v>
+        <v>1460</v>
       </c>
       <c r="F3">
-        <v>18689580</v>
+        <v>2850</v>
       </c>
       <c r="G3">
-        <v>74689470</v>
+        <v>5690</v>
       </c>
       <c r="H3">
-        <v>301373550</v>
+        <v>11270</v>
       </c>
       <c r="I3">
-        <v>1205930460</v>
+        <v>22540</v>
       </c>
       <c r="J3">
-        <v>4842500730</v>
+        <v>45060</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2286,31 +2395,63 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>145366</v>
+        <v>230</v>
       </c>
       <c r="C4">
-        <v>594833</v>
+        <v>390</v>
       </c>
       <c r="D4">
-        <v>2368733</v>
+        <v>730</v>
       </c>
       <c r="E4">
-        <v>9480633</v>
+        <v>1430</v>
       </c>
       <c r="F4">
-        <v>37967966</v>
+        <v>2860</v>
       </c>
       <c r="G4">
-        <v>152120100</v>
+        <v>5660</v>
       </c>
       <c r="H4">
-        <v>607842300</v>
+        <v>11630</v>
       </c>
       <c r="I4">
-        <v>2431126500</v>
+        <v>22380</v>
       </c>
       <c r="J4">
-        <v>9717219500</v>
+        <v>44830</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>147220</v>
+      </c>
+      <c r="C5">
+        <v>592100</v>
+      </c>
+      <c r="D5">
+        <v>2378380</v>
+      </c>
+      <c r="E5">
+        <v>9523910</v>
+      </c>
+      <c r="F5">
+        <v>38127360</v>
+      </c>
+      <c r="G5">
+        <v>152120810</v>
+      </c>
+      <c r="H5">
+        <v>608576870</v>
+      </c>
+      <c r="I5">
+        <v>2435330880</v>
+      </c>
+      <c r="J5">
+        <v>9744132200</v>
       </c>
     </row>
   </sheetData>
